--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>508406.2565335109</v>
+        <v>505745.8177883121</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>143.3842421118706</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>259.5687534906079</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.651863114966</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.884233797897059</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>90.47425134795112</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>270.6185435727099</v>
+        <v>398.7117047327484</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>155.1170338964071</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>20.46149937367052</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.23972555294948</v>
+        <v>12.23972555294949</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>226.0141001022996</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>209.6875146996641</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1006119508617</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>326.1679362938686</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>135.704661281745</v>
       </c>
       <c r="H9" t="n">
-        <v>96.40754664444702</v>
+        <v>96.40754664444707</v>
       </c>
       <c r="I9" t="n">
-        <v>32.97111237112986</v>
+        <v>32.97111237113</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2421419020534</v>
+        <v>141.2421419020535</v>
       </c>
       <c r="T9" t="n">
         <v>193.5589894182124</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.5328131842199</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>115.5150762987066</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>101.6051253461936</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.244085990039</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,16 +1370,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>232.3718689889931</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615216</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1427,7 +1427,7 @@
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>76.66276752108651</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530794</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>136.7254352278177</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>71.20806544425335</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1585,7 +1585,7 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174122</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>1.043911798777635</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833515</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520974</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.0656089242818</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>126.4418041083151</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>46.15319674220952</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.0656089242817</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>113.6427030833208</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703288</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712584</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179098</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703268</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788179482</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>816.5944448946054</v>
+        <v>1325.578137667892</v>
       </c>
       <c r="C2" t="n">
-        <v>447.6319279541937</v>
+        <v>1180.745569878124</v>
       </c>
       <c r="D2" t="n">
-        <v>447.6319279541937</v>
+        <v>1180.745569878124</v>
       </c>
       <c r="E2" t="n">
-        <v>447.6319279541937</v>
+        <v>794.9573172798794</v>
       </c>
       <c r="F2" t="n">
-        <v>185.4412678626705</v>
+        <v>383.9714124902719</v>
       </c>
       <c r="G2" t="n">
-        <v>172.393890139502</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H2" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I2" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J2" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K2" t="n">
-        <v>477.4022825530416</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L2" t="n">
-        <v>1030.215540799241</v>
+        <v>463.2326289691948</v>
       </c>
       <c r="M2" t="n">
-        <v>1216.914953624649</v>
+        <v>786.0860970395237</v>
       </c>
       <c r="N2" t="n">
-        <v>1844.222621684495</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O2" t="n">
-        <v>2391.383826451573</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P2" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4355,25 +4355,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T2" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U2" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V2" t="n">
-        <v>1932.968190401611</v>
+        <v>2089.183227904784</v>
       </c>
       <c r="W2" t="n">
-        <v>1580.199535131497</v>
+        <v>2089.183227904784</v>
       </c>
       <c r="X2" t="n">
-        <v>1206.733776870417</v>
+        <v>1715.717469643704</v>
       </c>
       <c r="Y2" t="n">
-        <v>816.5944448946054</v>
+        <v>1325.578137667892</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D3" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H3" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I3" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K3" t="n">
-        <v>382.1293238454227</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L3" t="n">
-        <v>886.4908637115414</v>
+        <v>453.4876558703397</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.988200066146</v>
+        <v>1094.033005337444</v>
       </c>
       <c r="N3" t="n">
-        <v>1430.928743686615</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O3" t="n">
-        <v>1980.364752439338</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P3" t="n">
-        <v>2404.332520920174</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S3" t="n">
         <v>2464.467288245464</v>
@@ -4440,19 +4440,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V3" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W3" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.4886008813686</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C4" t="n">
-        <v>218.4886008813686</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D4" t="n">
-        <v>218.4886008813686</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K4" t="n">
         <v>153.7488491352227</v>
@@ -4510,28 +4510,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>1051.742435546536</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S4" t="n">
-        <v>1051.742435546536</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T4" t="n">
-        <v>1051.742435546536</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U4" t="n">
-        <v>762.5902591242161</v>
+        <v>528.1779868890299</v>
       </c>
       <c r="V4" t="n">
-        <v>507.9057709183292</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="W4" t="n">
-        <v>218.4886008813686</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X4" t="n">
-        <v>218.4886008813686</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.4886008813686</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1543.91749131187</v>
+        <v>1524.662582410946</v>
       </c>
       <c r="C5" t="n">
-        <v>1174.954974371459</v>
+        <v>1524.662582410946</v>
       </c>
       <c r="D5" t="n">
-        <v>1174.954974371459</v>
+        <v>1166.396883804196</v>
       </c>
       <c r="E5" t="n">
-        <v>1174.954974371459</v>
+        <v>780.6086312059517</v>
       </c>
       <c r="F5" t="n">
-        <v>763.969069581851</v>
+        <v>773.6631304567483</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I5" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J5" t="n">
         <v>73.93516953299616</v>
@@ -4574,16 +4574,16 @@
         <v>709.3115823537878</v>
       </c>
       <c r="M5" t="n">
-        <v>1341.029393337099</v>
+        <v>1104.666818129292</v>
       </c>
       <c r="N5" t="n">
-        <v>1968.337061396946</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>2279.135690956216</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V5" t="n">
-        <v>2303.983089637072</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="W5" t="n">
-        <v>2303.983089637072</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="X5" t="n">
-        <v>1930.517331375992</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="Y5" t="n">
-        <v>1930.517331375992</v>
+        <v>1911.262422475068</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I6" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K6" t="n">
-        <v>120.3087392029699</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>624.6702790690885</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>1265.215628536193</v>
+        <v>1376.655075326359</v>
       </c>
       <c r="N6" t="n">
-        <v>1638.905258545106</v>
+        <v>2028.828954629068</v>
       </c>
       <c r="O6" t="n">
         <v>2188.341267297829</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>378.3209750901532</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C7" t="n">
-        <v>209.3847921622463</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D7" t="n">
-        <v>209.3847921622463</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E7" t="n">
-        <v>209.3847921622463</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F7" t="n">
-        <v>209.3847921622463</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G7" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H7" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I7" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J7" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K7" t="n">
         <v>153.7488491352227</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>922.1576397183603</v>
+        <v>1031.967419813432</v>
       </c>
       <c r="S7" t="n">
-        <v>922.1576397183603</v>
+        <v>824.5271350658372</v>
       </c>
       <c r="T7" t="n">
-        <v>922.1576397183603</v>
+        <v>824.5271350658372</v>
       </c>
       <c r="U7" t="n">
-        <v>633.00546329604</v>
+        <v>535.3749586435171</v>
       </c>
       <c r="V7" t="n">
-        <v>378.3209750901532</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="W7" t="n">
-        <v>378.3209750901532</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X7" t="n">
-        <v>378.3209750901532</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y7" t="n">
-        <v>378.3209750901532</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>845.0127004140256</v>
+        <v>1448.401205489012</v>
       </c>
       <c r="C8" t="n">
-        <v>476.0501834736139</v>
+        <v>1448.401205489012</v>
       </c>
       <c r="D8" t="n">
-        <v>476.0501834736139</v>
+        <v>1090.135506882262</v>
       </c>
       <c r="E8" t="n">
-        <v>476.0501834736139</v>
+        <v>704.3472542840175</v>
       </c>
       <c r="F8" t="n">
-        <v>65.06427868400627</v>
+        <v>293.3613494944099</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961285</v>
+        <v>280.9979903500165</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I8" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J8" t="n">
-        <v>298.2407414888385</v>
+        <v>130.8350924684848</v>
       </c>
       <c r="K8" t="n">
-        <v>786.9860892057748</v>
+        <v>298.676481739967</v>
       </c>
       <c r="L8" t="n">
-        <v>1058.334217019498</v>
+        <v>950.8503610426761</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.751164337563</v>
+        <v>1385.226975443454</v>
       </c>
       <c r="N8" t="n">
-        <v>1676.707704500188</v>
+        <v>2037.400854746164</v>
       </c>
       <c r="O8" t="n">
-        <v>1959.832701368975</v>
+        <v>2320.525851614949</v>
       </c>
       <c r="P8" t="n">
-        <v>2485.553056098991</v>
+        <v>2527.665485255196</v>
       </c>
       <c r="Q8" t="n">
-        <v>2592.933547824438</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
@@ -4832,22 +4832,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2423.240406576942</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.045976980643</v>
+        <v>2169.603424808395</v>
       </c>
       <c r="V8" t="n">
-        <v>2303.983089637072</v>
+        <v>1838.540537464824</v>
       </c>
       <c r="W8" t="n">
-        <v>1951.214434366958</v>
+        <v>1838.540537464824</v>
       </c>
       <c r="X8" t="n">
-        <v>1621.751872453959</v>
+        <v>1838.540537464824</v>
       </c>
       <c r="Y8" t="n">
-        <v>1231.612540478147</v>
+        <v>1448.401205489012</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>626.2338621114379</v>
       </c>
       <c r="E9" t="n">
-        <v>466.9964071059824</v>
+        <v>466.9964071059825</v>
       </c>
       <c r="F9" t="n">
-        <v>320.4618491328673</v>
+        <v>320.4618491328675</v>
       </c>
       <c r="G9" t="n">
-        <v>183.3864336967612</v>
+        <v>183.3864336967614</v>
       </c>
       <c r="H9" t="n">
-        <v>86.00507344984504</v>
+        <v>86.00507344984518</v>
       </c>
       <c r="I9" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J9" t="n">
-        <v>205.2493756933903</v>
+        <v>205.2493756933899</v>
       </c>
       <c r="K9" t="n">
-        <v>592.5998279356143</v>
+        <v>330.7792432931604</v>
       </c>
       <c r="L9" t="n">
-        <v>1174.844709276926</v>
+        <v>839.1691618897291</v>
       </c>
       <c r="M9" t="n">
-        <v>1598.644667287482</v>
+        <v>1491.343041192438</v>
       </c>
       <c r="N9" t="n">
-        <v>1890.593081824451</v>
+        <v>1783.291455729406</v>
       </c>
       <c r="O9" t="n">
-        <v>2135.449049174654</v>
+        <v>2028.147423079608</v>
       </c>
       <c r="P9" t="n">
-        <v>2312.634483613314</v>
+        <v>2520.610998471805</v>
       </c>
       <c r="Q9" t="n">
         <v>2589.135572646087</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221.6371024675198</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J10" t="n">
-        <v>56.44303377193429</v>
+        <v>56.44303377193404</v>
       </c>
       <c r="K10" t="n">
-        <v>192.4293137012956</v>
+        <v>192.4293137012949</v>
       </c>
       <c r="L10" t="n">
-        <v>421.9713681763059</v>
+        <v>421.9713681763047</v>
       </c>
       <c r="M10" t="n">
-        <v>674.3804035438127</v>
+        <v>674.380403543811</v>
       </c>
       <c r="N10" t="n">
-        <v>926.2223326340672</v>
+        <v>926.222332634065</v>
       </c>
       <c r="O10" t="n">
-        <v>1142.822820431834</v>
+        <v>1142.822820431832</v>
       </c>
       <c r="P10" t="n">
-        <v>1304.64127440449</v>
+        <v>1304.641274404487</v>
       </c>
       <c r="Q10" t="n">
-        <v>1333.240904069309</v>
+        <v>1333.240904069305</v>
       </c>
       <c r="R10" t="n">
-        <v>1333.240904069309</v>
+        <v>1216.559008818087</v>
       </c>
       <c r="S10" t="n">
-        <v>1333.240904069309</v>
+        <v>1216.559008818087</v>
       </c>
       <c r="T10" t="n">
-        <v>1333.240904069309</v>
+        <v>1113.927569074457</v>
       </c>
       <c r="U10" t="n">
-        <v>1333.240904069309</v>
+        <v>824.7921286804777</v>
       </c>
       <c r="V10" t="n">
-        <v>1078.556415863422</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="W10" t="n">
-        <v>789.1392458264611</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X10" t="n">
-        <v>561.1496949284438</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y10" t="n">
-        <v>340.3571157849136</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1816.55321647714</v>
+        <v>1898.076467649853</v>
       </c>
       <c r="C11" t="n">
-        <v>1816.55321647714</v>
+        <v>1529.113950709441</v>
       </c>
       <c r="D11" t="n">
-        <v>1581.834156892299</v>
+        <v>1170.848252102691</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.045904294054</v>
+        <v>785.0599995044463</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044468</v>
+        <v>785.0599995044463</v>
       </c>
       <c r="G11" t="n">
         <v>370.4442349455922</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592067</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592067</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J11" t="n">
         <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656953</v>
       </c>
       <c r="L11" t="n">
         <v>1216.830004625329</v>
@@ -5054,37 +5054,37 @@
         <v>2455.600890484041</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535294</v>
+        <v>3033.988513535295</v>
       </c>
       <c r="P11" t="n">
         <v>3493.127967479993</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464058</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796034</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345375</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926739</v>
+        <v>3672.904689377399</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048267</v>
+        <v>3419.410747498928</v>
       </c>
       <c r="V11" t="n">
-        <v>3319.526802048267</v>
+        <v>3088.347860155357</v>
       </c>
       <c r="W11" t="n">
-        <v>2966.758146778153</v>
+        <v>2735.579204885243</v>
       </c>
       <c r="X11" t="n">
-        <v>2593.292388517073</v>
+        <v>2362.113446624163</v>
       </c>
       <c r="Y11" t="n">
-        <v>2203.153056541261</v>
+        <v>2284.676307713974</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592067</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592067</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>272.74315856559</v>
+        <v>470.7769964046653</v>
       </c>
       <c r="L12" t="n">
-        <v>691.4401992235413</v>
+        <v>676.7125526339524</v>
       </c>
       <c r="M12" t="n">
-        <v>1199.396765180069</v>
+        <v>1184.669118590481</v>
       </c>
       <c r="N12" t="n">
-        <v>1735.206074881279</v>
+        <v>1720.47842829169</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2188.419472624213</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>856.3974185289013</v>
+        <v>227.6543053282564</v>
       </c>
       <c r="C13" t="n">
-        <v>687.4612356009944</v>
+        <v>227.6543053282564</v>
       </c>
       <c r="D13" t="n">
-        <v>537.3445961886587</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="E13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592067</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592067</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758643</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648136</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344799</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376938</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010721</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2065.435629910228</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.435629910228</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1844.544297344668</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1555.452604294119</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1555.452604294119</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>1266.035434257158</v>
+        <v>814.5429355999227</v>
       </c>
       <c r="X13" t="n">
-        <v>1038.045883359141</v>
+        <v>586.5533847019053</v>
       </c>
       <c r="Y13" t="n">
-        <v>1038.045883359141</v>
+        <v>365.7608055583752</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,16 +5303,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836311992</v>
+        <v>513.8536007400681</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7557007032923</v>
+        <v>344.9174178121613</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7557007032922</v>
+        <v>194.8007783998256</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998256</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429801</v>
+        <v>194.8007783998256</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998256</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614389</v>
+        <v>695.5020655703079</v>
       </c>
     </row>
     <row r="17">
@@ -5501,49 +5501,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835334</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711975</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.724593490894</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2252.19838578386</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1963.123159128058</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1708.438670922171</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135293</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856224</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D22" t="n">
-        <v>550.6376870732868</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121644</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,16 +6145,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459586</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,22 +6473,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400735</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121665</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121665</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121665</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121665</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797766</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138434</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
         <v>1896.176478190825</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642675</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188002</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908934</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121646</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121646</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121646</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121646</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7816,40 +7816,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>137.5293487322437</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
@@ -7994,10 +7994,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>98.93303561408925</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,25 +8055,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>78.07077454018204</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>167.963436331115</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8222,19 +8222,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>210.7634575253497</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,19 +8295,19 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>313.8049245052656</v>
       </c>
       <c r="N6" t="n">
-        <v>176.8008973295436</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>26.48917274104747</v>
+        <v>411.16164899255</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>131.2723909926404</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>341.6336758990766</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>23.17861264449334</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>296.2393728340229</v>
       </c>
       <c r="M9" t="n">
-        <v>154.9660966407023</v>
+        <v>385.6468252186353</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.9266800252483</v>
+        <v>43.92668002524856</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-8.915365836024113e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>122.3111726316898</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184563</v>
+        <v>24.14662204184562</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>309.5751711349671</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>43.10654495411964</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927377</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.605241354799077</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.3900508477915</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788874</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>90.96364621897321</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>171.252253585079</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194218</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>34.97276993489159</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823103</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194005</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038623</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.229103921942</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.4693302300329</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>939540.782134966</v>
+        <v>939540.7821349665</v>
       </c>
     </row>
     <row r="6">
@@ -26314,46 +26314,46 @@
         <v>389994.8406855345</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855349</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="E2" t="n">
-        <v>347979.8910303376</v>
+        <v>347979.8910303378</v>
       </c>
       <c r="F2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="G2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="H2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
         <v>383394.6348527528</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="M2" t="n">
         <v>383394.6348527528</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="O2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>792647.4137109849</v>
+        <v>792647.413710985</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>144261.3327426453</v>
+        <v>144261.3327426436</v>
       </c>
       <c r="E3" t="n">
-        <v>446448.3338318944</v>
+        <v>446448.3338318963</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704295</v>
+        <v>189308.2687704291</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>77367.70679951768</v>
+        <v>77367.70679951773</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320238</v>
+        <v>49839.5741320236</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>183955.1029744945</v>
       </c>
       <c r="D4" t="n">
-        <v>156670.233953792</v>
+        <v>156670.2339537924</v>
       </c>
       <c r="E4" t="n">
         <v>6182.061972048512</v>
@@ -26430,34 +26430,34 @@
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169501</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695064</v>
+        <v>6287.48053169502</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695062</v>
       </c>
       <c r="M4" t="n">
+        <v>6287.480531695065</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531695113</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="N4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695052</v>
-      </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695064</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86618.07783747558</v>
+        <v>86618.07783747559</v>
       </c>
       <c r="C5" t="n">
-        <v>86618.07783747558</v>
+        <v>86618.07783747559</v>
       </c>
       <c r="D5" t="n">
-        <v>90290.24696804755</v>
+        <v>90290.24696804752</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738563</v>
+        <v>85137.48506738564</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-673225.7538374205</v>
+        <v>-673225.7538374206</v>
       </c>
       <c r="C6" t="n">
-        <v>119421.6598735643</v>
+        <v>119421.6598735642</v>
       </c>
       <c r="D6" t="n">
-        <v>-1226.972978949954</v>
+        <v>-1226.972978948732</v>
       </c>
       <c r="E6" t="n">
-        <v>-189787.989840991</v>
+        <v>-190009.1211549674</v>
       </c>
       <c r="F6" t="n">
-        <v>86676.35572672136</v>
+        <v>86641.61780128597</v>
       </c>
       <c r="G6" t="n">
-        <v>275984.6244971509</v>
+        <v>275949.8865717149</v>
       </c>
       <c r="H6" t="n">
-        <v>275984.6244971508</v>
+        <v>275949.8865717151</v>
       </c>
       <c r="I6" t="n">
-        <v>275984.6244971507</v>
+        <v>275949.8865717153</v>
       </c>
       <c r="J6" t="n">
-        <v>103623.6320968699</v>
+        <v>103588.8941714343</v>
       </c>
       <c r="K6" t="n">
-        <v>275984.6244971507</v>
+        <v>275949.8865717149</v>
       </c>
       <c r="L6" t="n">
-        <v>275984.6244971506</v>
+        <v>275949.886571715</v>
       </c>
       <c r="M6" t="n">
-        <v>198616.9176976329</v>
+        <v>198582.1797721972</v>
       </c>
       <c r="N6" t="n">
-        <v>226145.0503651271</v>
+        <v>226110.3124396914</v>
       </c>
       <c r="O6" t="n">
-        <v>275984.6244971507</v>
+        <v>275949.886571715</v>
       </c>
       <c r="P6" t="n">
-        <v>275984.6244971506</v>
+        <v>275949.8865717151</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>761.9242255936603</v>
+        <v>761.9242255936583</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="C4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="D4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490084</v>
+        <v>969.2208239490087</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>168.4481252555952</v>
+        <v>168.4481252555932</v>
       </c>
       <c r="E3" t="n">
-        <v>440.3170116212897</v>
+        <v>440.3170116212919</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267238</v>
+        <v>165.7342631267236</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>310.4593297038477</v>
+        <v>310.459329703848</v>
       </c>
       <c r="F4" t="n">
-        <v>203.48746415064</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.4593297038477</v>
+        <v>310.459329703848</v>
       </c>
       <c r="N4" t="n">
-        <v>203.48746415064</v>
+        <v>203.4874641506392</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.4593297038477</v>
+        <v>310.459329703848</v>
       </c>
       <c r="N4" t="n">
-        <v>203.48746415064</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>221.8886496591369</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>147.3072922511035</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>128.2889478698943</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>195.7864033101459</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>142.2983603732269</v>
+        <v>14.20519921318834</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>11.80374265816334</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.7116822941208</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>308.1057308580342</v>
+        <v>82.09163075573471</v>
       </c>
       <c r="I8" t="n">
-        <v>92.38912089824674</v>
+        <v>92.38912089824704</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.2216844979417</v>
+        <v>139.2216844979419</v>
       </c>
       <c r="T8" t="n">
-        <v>209.687514699664</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1006119508617</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>43.56316438460044</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.29916699771738</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28029,7 @@
         <v>150.0114037757904</v>
       </c>
       <c r="I10" t="n">
-        <v>114.1316988901463</v>
+        <v>114.1316988901465</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.5150762987065</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.0721924556108</v>
+        <v>200.0721924556109</v>
       </c>
       <c r="T10" t="n">
-        <v>222.0750257228877</v>
+        <v>120.4699003766941</v>
       </c>
       <c r="U10" t="n">
-        <v>286.244085990039</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-3.56324392939135e-13</v>
       </c>
     </row>
     <row r="17">
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2.411538981973673e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31157,7 +31157,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U3" t="n">
         <v>0.08398246702897151</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.063011962185567</v>
+        <v>3.063011962185559</v>
       </c>
       <c r="H8" t="n">
-        <v>31.36907125773294</v>
+        <v>31.36907125773286</v>
       </c>
       <c r="I8" t="n">
-        <v>118.0867686721592</v>
+        <v>118.0867686721589</v>
       </c>
       <c r="J8" t="n">
-        <v>259.9693115255475</v>
+        <v>259.9693115255468</v>
       </c>
       <c r="K8" t="n">
-        <v>389.6266078848626</v>
+        <v>389.6266078848616</v>
       </c>
       <c r="L8" t="n">
-        <v>483.3662602225992</v>
+        <v>483.366260222598</v>
       </c>
       <c r="M8" t="n">
-        <v>537.8380992051168</v>
+        <v>537.8380992051154</v>
       </c>
       <c r="N8" t="n">
-        <v>546.5408819426765</v>
+        <v>546.5408819426751</v>
       </c>
       <c r="O8" t="n">
-        <v>516.0830567436938</v>
+        <v>516.0830567436925</v>
       </c>
       <c r="P8" t="n">
-        <v>440.4649489272375</v>
+        <v>440.4649489272364</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.7708330314669</v>
+        <v>330.770833031466</v>
       </c>
       <c r="R8" t="n">
-        <v>192.4069251696393</v>
+        <v>192.4069251696388</v>
       </c>
       <c r="S8" t="n">
-        <v>69.79838508830366</v>
+        <v>69.79838508830349</v>
       </c>
       <c r="T8" t="n">
-        <v>13.40833486446732</v>
+        <v>13.40833486446729</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2450409569748453</v>
+        <v>0.2450409569748447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.638855881465609</v>
+        <v>1.638855881465605</v>
       </c>
       <c r="H9" t="n">
-        <v>15.82789759204944</v>
+        <v>15.8278975920494</v>
       </c>
       <c r="I9" t="n">
-        <v>56.42552048028522</v>
+        <v>56.42552048028508</v>
       </c>
       <c r="J9" t="n">
-        <v>154.8359409765381</v>
+        <v>154.8359409765377</v>
       </c>
       <c r="K9" t="n">
-        <v>264.6392850347339</v>
+        <v>264.6392850347332</v>
       </c>
       <c r="L9" t="n">
-        <v>355.8401772454166</v>
+        <v>355.8401772454156</v>
       </c>
       <c r="M9" t="n">
-        <v>415.2487029485448</v>
+        <v>415.2487029485437</v>
       </c>
       <c r="N9" t="n">
-        <v>426.2391005045138</v>
+        <v>426.2391005045127</v>
       </c>
       <c r="O9" t="n">
-        <v>389.9255043941442</v>
+        <v>389.9255043941432</v>
       </c>
       <c r="P9" t="n">
-        <v>312.9495937160074</v>
+        <v>312.9495937160066</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1985156762065</v>
+        <v>209.198515676206</v>
       </c>
       <c r="R9" t="n">
-        <v>101.7528239387157</v>
+        <v>101.7528239387154</v>
       </c>
       <c r="S9" t="n">
-        <v>30.44102920178442</v>
+        <v>30.44102920178435</v>
       </c>
       <c r="T9" t="n">
-        <v>6.605739276609184</v>
+        <v>6.605739276609167</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1078194658858954</v>
+        <v>0.1078194658858951</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.373961718283649</v>
+        <v>1.373961718283646</v>
       </c>
       <c r="H10" t="n">
-        <v>12.21576873164918</v>
+        <v>12.21576873164915</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31877603711195</v>
+        <v>41.31877603711184</v>
       </c>
       <c r="J10" t="n">
-        <v>97.13909348265402</v>
+        <v>97.13909348265376</v>
       </c>
       <c r="K10" t="n">
-        <v>159.6293705424094</v>
+        <v>159.629370542409</v>
       </c>
       <c r="L10" t="n">
-        <v>204.2706358255528</v>
+        <v>204.2706358255523</v>
       </c>
       <c r="M10" t="n">
-        <v>215.3747446214997</v>
+        <v>215.3747446214991</v>
       </c>
       <c r="N10" t="n">
-        <v>210.2536145806244</v>
+        <v>210.2536145806239</v>
       </c>
       <c r="O10" t="n">
-        <v>194.2032435988563</v>
+        <v>194.2032435988558</v>
       </c>
       <c r="P10" t="n">
-        <v>166.1744245458697</v>
+        <v>166.1744245458693</v>
       </c>
       <c r="Q10" t="n">
-        <v>115.0505580646427</v>
+        <v>115.0505580646424</v>
       </c>
       <c r="R10" t="n">
-        <v>61.77831507846299</v>
+        <v>61.77831507846283</v>
       </c>
       <c r="S10" t="n">
-        <v>23.94440558136141</v>
+        <v>23.94440558136135</v>
       </c>
       <c r="T10" t="n">
-        <v>5.870563705393773</v>
+        <v>5.870563705393758</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07494336645183551</v>
+        <v>0.07494336645183532</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869142</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639236</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285603</v>
@@ -31762,28 +31762,28 @@
         <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975123</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544653</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954555</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180163</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.32813369568</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620354</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825967</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696627</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
@@ -31792,7 +31792,7 @@
         <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495313</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,40 +31832,40 @@
         <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469206</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>335.0187042770552</v>
+        <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747745</v>
+        <v>346.5700931427905</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821476</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340502</v>
+        <v>672.5632370340503</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924471</v>
+        <v>615.2639659924472</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383443</v>
+        <v>493.8035753383444</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.0329399962765</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31908,22 +31908,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
         <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798451</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329025</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.318904810054</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
         <v>339.8400926770062</v>
@@ -31932,25 +31932,25 @@
         <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806237</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
         <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811706</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
         <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837748</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>753.6188077738268</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>746.4857620875799</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,22 +33734,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33974,10 +33974,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,22 +34445,22 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K2" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L2" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802098</v>
+        <v>326.1146142124534</v>
       </c>
       <c r="N2" t="n">
         <v>633.6441091513602</v>
@@ -34714,10 +34714,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P2" t="n">
-        <v>210.7858894014898</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K3" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L3" t="n">
-        <v>509.4561008748672</v>
+        <v>216.6865301115901</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
-        <v>368.626811737847</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O3" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
         <v>233.0438950105733</v>
@@ -34942,19 +34942,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>399.3487230055595</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>495.1153652674927</v>
       </c>
       <c r="N6" t="n">
-        <v>377.4642727362756</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>248.020022170935</v>
+        <v>78.92340699886051</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6821694110467</v>
+        <v>169.536756839881</v>
       </c>
       <c r="L8" t="n">
-        <v>274.0890179936594</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="M8" t="n">
-        <v>307.4918659778441</v>
+        <v>438.7642569704831</v>
       </c>
       <c r="N8" t="n">
-        <v>317.1278183460856</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O8" t="n">
-        <v>285.984845322007</v>
+        <v>285.9848453220058</v>
       </c>
       <c r="P8" t="n">
-        <v>531.0306613434507</v>
+        <v>209.2319531719669</v>
       </c>
       <c r="Q8" t="n">
-        <v>108.4651431570174</v>
+        <v>108.4651431570165</v>
       </c>
       <c r="R8" t="n">
-        <v>42.53780722848958</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>154.0893496502802</v>
+        <v>154.0893496502798</v>
       </c>
       <c r="K9" t="n">
-        <v>391.2630830729535</v>
+        <v>126.7978460603742</v>
       </c>
       <c r="L9" t="n">
-        <v>588.1261427690015</v>
+        <v>513.5251702995644</v>
       </c>
       <c r="M9" t="n">
-        <v>428.0807656672288</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="N9" t="n">
-        <v>294.8973884211805</v>
+        <v>294.8973884211794</v>
       </c>
       <c r="O9" t="n">
-        <v>247.3292599496998</v>
+        <v>247.3292599496988</v>
       </c>
       <c r="P9" t="n">
-        <v>178.9751863016771</v>
+        <v>497.4379549416135</v>
       </c>
       <c r="Q9" t="n">
-        <v>279.2940293260341</v>
+        <v>69.21674159018445</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.779913365981244</v>
+        <v>3.779913365980988</v>
       </c>
       <c r="K10" t="n">
-        <v>137.3598787165266</v>
+        <v>137.3598787165262</v>
       </c>
       <c r="L10" t="n">
-        <v>231.8606610858689</v>
+        <v>231.8606610858684</v>
       </c>
       <c r="M10" t="n">
-        <v>254.9586215833403</v>
+        <v>254.9586215833397</v>
       </c>
       <c r="N10" t="n">
-        <v>254.385786959853</v>
+        <v>254.3857869598525</v>
       </c>
       <c r="O10" t="n">
-        <v>218.7883715128959</v>
+        <v>218.7883715128955</v>
       </c>
       <c r="P10" t="n">
-        <v>163.4529838107632</v>
+        <v>163.4529838107628</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.88851481294832</v>
+        <v>28.88851481294802</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525318</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681828</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214254</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739932</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067659</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081472</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553062</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>197.1772653026962</v>
+        <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949004</v>
+        <v>208.0157133629163</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601292</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507169</v>
+        <v>541.221524950717</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480026</v>
+        <v>472.6677215480028</v>
       </c>
       <c r="P12" t="n">
-        <v>359.829167924014</v>
+        <v>359.8291679240141</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655342</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.9167231918627</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
         <v>229.6099018070197</v>
@@ -35580,13 +35580,13 @@
         <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946634</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
         <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776306</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367747</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>622.2770956904935</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>615.1440500042467</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193529</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191338</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37622,10 +37622,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
